--- a/writable/template/template_export_receivable.xlsx
+++ b/writable/template/template_export_receivable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Dbig/writable/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4343754-7D84-0947-8444-074D28F68868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DDF6A2-D88F-CB48-BB30-C5BE31ED83DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{121B3595-B946-4EB3-A444-621BA2FB6EAD}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Periode:</t>
   </si>
   <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
     <t>Jatuh Tempo</t>
   </si>
   <si>
@@ -45,16 +42,25 @@
     <t>No Faktur</t>
   </si>
   <si>
-    <t>Jumlah Transaksi</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>Total Setoran</t>
-  </si>
-  <si>
-    <t>Sisa</t>
+    <t>Tanggal Faktur</t>
+  </si>
+  <si>
+    <t>1 - 30 Hari</t>
+  </si>
+  <si>
+    <t>30 - 60 Hari</t>
+  </si>
+  <si>
+    <t>60 - 90 Hari</t>
+  </si>
+  <si>
+    <t>90 - 180 Hari</t>
+  </si>
+  <si>
+    <t>180 Hari Ke Atas</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3BAD26-DF60-4598-8F68-331591CF5B28}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -485,45 +491,47 @@
     <col min="7" max="7" width="21.5" style="11" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="11" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D1" s="5"/>
       <c r="E1" s="7"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D2" s="4"/>
       <c r="E2" s="8"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>2</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>6</v>
@@ -536,6 +544,12 @@
       </c>
       <c r="I7" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
